--- a/code/ExcelData/TestingPropertyTycoonBoardData.xlsx
+++ b/code/ExcelData/TestingPropertyTycoonBoardData.xlsx
@@ -1,306 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10030" windowWidth="7550" xWindow="2280" yWindow="770"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2280" yWindow="770" windowWidth="7550" windowHeight="10030" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
-  <si>
-    <t>Property Tycoon board data</t>
-  </si>
-  <si>
-    <t>If can be bought</t>
-  </si>
-  <si>
-    <t>When improved</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rent (unimproved) </t>
-  </si>
-  <si>
-    <t>1 house</t>
-  </si>
-  <si>
-    <t>2 houses</t>
-  </si>
-  <si>
-    <t>3 houses</t>
-  </si>
-  <si>
-    <t>4 houses</t>
-  </si>
-  <si>
-    <t>1 hotel</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Space/property</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Can be bought?</t>
-  </si>
-  <si>
-    <t>£</t>
-  </si>
-  <si>
-    <t>Testing1</t>
-  </si>
-  <si>
-    <t>Testing2</t>
-  </si>
-  <si>
-    <t>Collect £200</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>The Old Creek</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Pot Luck</t>
-  </si>
-  <si>
-    <t>Take card</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Gangsters Paradise</t>
-  </si>
-  <si>
-    <t>Income Tax</t>
-  </si>
-  <si>
-    <t>Pay £200</t>
-  </si>
-  <si>
-    <t>Brighton Station</t>
-  </si>
-  <si>
-    <t>Station</t>
-  </si>
-  <si>
-    <t>See notes</t>
-  </si>
-  <si>
-    <t>The Angels Delight</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Opportunity Knocks</t>
-  </si>
-  <si>
-    <t>Potter Avenue</t>
-  </si>
-  <si>
-    <t>Granger Drive</t>
-  </si>
-  <si>
-    <t>Jail/Just visiting</t>
-  </si>
-  <si>
-    <t>Skywalker Drive</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Tesla Power Co</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Wookie Hole</t>
-  </si>
-  <si>
-    <t>Rey Lane</t>
-  </si>
-  <si>
-    <t>Hove Station</t>
-  </si>
-  <si>
-    <t>Bishop Drive</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Dunham Street</t>
-  </si>
-  <si>
-    <t>Broyles Lane</t>
-  </si>
-  <si>
-    <t>Free Parking</t>
-  </si>
-  <si>
-    <t>Collect fines</t>
-  </si>
-  <si>
-    <t>Yue Fei Square</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Mulan Rouge</t>
-  </si>
-  <si>
-    <t>Han Xin Gardens</t>
-  </si>
-  <si>
-    <t>Falmer Station</t>
-  </si>
-  <si>
-    <t>Shatner Close</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Picard Avenue</t>
-  </si>
-  <si>
-    <t>Edison Water</t>
-  </si>
-  <si>
-    <t>Crusher Creek</t>
-  </si>
-  <si>
-    <t>Go to Jail</t>
-  </si>
-  <si>
-    <t>Go to jail</t>
-  </si>
-  <si>
-    <t>Sirat Mews</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Ghengis Crescent</t>
-  </si>
-  <si>
-    <t>Ibis Close</t>
-  </si>
-  <si>
-    <t>Portslade Station</t>
-  </si>
-  <si>
-    <t>James Webb Way</t>
-  </si>
-  <si>
-    <t>Deep blue</t>
-  </si>
-  <si>
-    <t>Super Tax</t>
-  </si>
-  <si>
-    <t>Pay £100</t>
-  </si>
-  <si>
-    <t>Turing Heights</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>House and hotel costs</t>
-  </si>
-  <si>
-    <t>If one utility is owned by a player, rent is 4 times value shown on dice.</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>If both utilities are owned by a player, rent is 10 time value shown on dice.</t>
-  </si>
-  <si>
-    <t>Brown, Blue</t>
-  </si>
-  <si>
-    <t>£50 + 4 houses</t>
-  </si>
-  <si>
-    <t>If player owns 1 station, rent is £25</t>
-  </si>
-  <si>
-    <t>Purple, Orange</t>
-  </si>
-  <si>
-    <t>£100 + 4 houses</t>
-  </si>
-  <si>
-    <t>If player owns 2 stations, rent is £50</t>
-  </si>
-  <si>
-    <t>Red, Yellow</t>
-  </si>
-  <si>
-    <t>£150 + 4 houses</t>
-  </si>
-  <si>
-    <t>If player owns 3 stations, rent is £100</t>
-  </si>
-  <si>
-    <t>Green, Deep blue</t>
-  </si>
-  <si>
-    <t>£200 + 4 houses</t>
-  </si>
-  <si>
-    <t>If player owns 4 stations, rent is £200</t>
-  </si>
-  <si>
-    <t>Income Tax and Super Tax fines are paid to the bank</t>
-  </si>
-  <si>
-    <t>Go</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -351,21 +67,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -672,108 +456,158 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="4" min="4" style="4" width="13.26953125"/>
-    <col customWidth="1" max="5" min="5" style="4" width="15"/>
+    <col width="13.26953125" customWidth="1" style="4" min="4" max="4"/>
+    <col width="15" customWidth="1" style="4" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="21" r="1" s="4" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="H2" s="1" t="s">
-        <v>1</v>
+    <row r="1" ht="21" customHeight="1" s="4">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Property Tycoon board data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>If can be bought</t>
+        </is>
       </c>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>When improved</t>
+        </is>
       </c>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="n"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:15">
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="1" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    <row r="3" customFormat="1" s="1">
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rent (unimproved) </t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>1 house</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>2 houses</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>3 houses</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>4 houses</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>1 hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Space/property</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Can be bought?</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>£</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collect £200</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n"/>
@@ -783,18 +617,24 @@
       <c r="N5" s="3" t="n"/>
       <c r="O5" s="3" t="n"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6">
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The Old Creek</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>60</v>
@@ -818,18 +658,24 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="n">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pot Luck</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Take card</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I7" s="3" t="n"/>
       <c r="J7" s="3" t="n"/>
@@ -839,18 +685,24 @@
       <c r="N7" s="3" t="n"/>
       <c r="O7" s="3" t="n"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8">
       <c r="A8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gangsters Paradise</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>60</v>
@@ -874,18 +726,24 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9">
       <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Income Tax</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pay £200</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I9" s="3" t="n"/>
       <c r="J9" s="3" t="n"/>
@@ -895,24 +753,32 @@
       <c r="N9" s="3" t="n"/>
       <c r="O9" s="3" t="n"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10">
       <c r="A10" t="n">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brighton Station</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>200</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>See notes</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n"/>
       <c r="K10" s="3" t="n"/>
@@ -921,18 +787,24 @@
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="3" t="n"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11">
       <c r="A11" t="n">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The Angels Delight</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>100</v>
@@ -956,18 +828,24 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12">
       <c r="A12" t="n">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Opportunity Knocks</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Take card</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I12" s="3" t="n"/>
       <c r="J12" s="3" t="n"/>
@@ -977,18 +855,24 @@
       <c r="N12" s="3" t="n"/>
       <c r="O12" s="3" t="n"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13">
       <c r="A13" t="n">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Potter Avenue</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>100</v>
@@ -1012,18 +896,24 @@
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14">
       <c r="A14" t="n">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Granger Drive</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>120</v>
@@ -1047,15 +937,19 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15">
       <c r="A15" t="n">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jail/Just visiting</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I15" s="3" t="n"/>
       <c r="J15" s="3" t="n"/>
@@ -1065,18 +959,24 @@
       <c r="N15" s="3" t="n"/>
       <c r="O15" s="3" t="n"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16">
       <c r="A16" t="n">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Skywalker Drive</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>140</v>
@@ -1100,24 +1000,32 @@
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17">
       <c r="A17" t="n">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tesla Power Co</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>150</v>
       </c>
-      <c r="I17" t="s">
-        <v>30</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>See notes</t>
+        </is>
       </c>
       <c r="J17" s="3" t="n"/>
       <c r="K17" s="3" t="n"/>
@@ -1126,18 +1034,24 @@
       <c r="N17" s="3" t="n"/>
       <c r="O17" s="3" t="n"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18">
       <c r="A18" t="n">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Wookie Hole</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>140</v>
@@ -1161,18 +1075,24 @@
         <v>750</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19">
       <c r="A19" t="n">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rey Lane</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>160</v>
@@ -1196,24 +1116,32 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20">
       <c r="A20" t="n">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hove Station</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>200</v>
       </c>
-      <c r="I20" t="s">
-        <v>30</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>See notes</t>
+        </is>
       </c>
       <c r="J20" s="3" t="n"/>
       <c r="K20" s="3" t="n"/>
@@ -1222,18 +1150,24 @@
       <c r="N20" s="3" t="n"/>
       <c r="O20" s="3" t="n"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21">
       <c r="A21" t="n">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bishop Drive</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>180</v>
@@ -1257,18 +1191,24 @@
         <v>950</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22">
       <c r="A22" t="n">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pot Luck</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Take card</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I22" s="3" t="n"/>
       <c r="J22" s="3" t="n"/>
@@ -1278,18 +1218,24 @@
       <c r="N22" s="3" t="n"/>
       <c r="O22" s="3" t="n"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23">
       <c r="A23" t="n">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dunham Street</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>180</v>
@@ -1313,18 +1259,24 @@
         <v>950</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24">
       <c r="A24" t="n">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>19</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Broyles Lane</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>200</v>
@@ -1348,18 +1300,24 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25">
       <c r="A25" t="n">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Free Parking</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Collect fines</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I25" s="3" t="n"/>
       <c r="J25" s="3" t="n"/>
@@ -1369,18 +1327,24 @@
       <c r="N25" s="3" t="n"/>
       <c r="O25" s="3" t="n"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26">
       <c r="A26" t="n">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yue Fei Square</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>220</v>
@@ -1404,18 +1368,24 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27">
       <c r="A27" t="n">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Opportunity Knocks</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Take card</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I27" s="3" t="n"/>
       <c r="J27" s="3" t="n"/>
@@ -1425,18 +1395,24 @@
       <c r="N27" s="3" t="n"/>
       <c r="O27" s="3" t="n"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28">
       <c r="A28" t="n">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>19</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mulan Rouge</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>220</v>
@@ -1460,18 +1436,24 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29">
       <c r="A29" t="n">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>19</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Han Xin Gardens</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>240</v>
@@ -1495,24 +1477,32 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30">
       <c r="A30" t="n">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>19</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Falmer Station</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>200</v>
       </c>
-      <c r="I30" t="s">
-        <v>30</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>See notes</t>
+        </is>
       </c>
       <c r="J30" s="3" t="n"/>
       <c r="K30" s="3" t="n"/>
@@ -1521,18 +1511,24 @@
       <c r="N30" s="3" t="n"/>
       <c r="O30" s="3" t="n"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31">
       <c r="A31" t="n">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Shatner Close</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>260</v>
@@ -1556,18 +1552,24 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32">
       <c r="A32" t="n">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>19</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Picard Avenue</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>260</v>
@@ -1591,24 +1593,32 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33">
       <c r="A33" t="n">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s">
-        <v>19</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Edison Water</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>150</v>
       </c>
-      <c r="I33" t="s">
-        <v>30</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>See notes</t>
+        </is>
       </c>
       <c r="J33" s="3" t="n"/>
       <c r="K33" s="3" t="n"/>
@@ -1617,18 +1627,24 @@
       <c r="N33" s="3" t="n"/>
       <c r="O33" s="3" t="n"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34">
       <c r="A34" t="n">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" t="s">
-        <v>19</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Crusher Creek</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>280</v>
@@ -1652,18 +1668,24 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35">
       <c r="A35" t="n">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Go to Jail</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Go to jail</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I35" s="3" t="n"/>
       <c r="J35" s="3" t="n"/>
@@ -1673,18 +1695,24 @@
       <c r="N35" s="3" t="n"/>
       <c r="O35" s="3" t="n"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36">
       <c r="A36" t="n">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sirat Mews</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>300</v>
@@ -1708,18 +1736,24 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37">
       <c r="A37" t="n">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" t="s">
-        <v>19</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ghengis Crescent</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>300</v>
@@ -1743,18 +1777,24 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38">
       <c r="A38" t="n">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pot Luck</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Take card</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I38" s="3" t="n"/>
       <c r="J38" s="3" t="n"/>
@@ -1764,18 +1804,24 @@
       <c r="N38" s="3" t="n"/>
       <c r="O38" s="3" t="n"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39">
       <c r="A39" t="n">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" t="s">
-        <v>19</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ibis Close</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H39" t="n">
         <v>320</v>
@@ -1799,24 +1845,32 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40">
       <c r="A40" t="n">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" t="s">
-        <v>19</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Portslade Station</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H40" t="n">
         <v>200</v>
       </c>
-      <c r="I40" t="s">
-        <v>30</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>See notes</t>
+        </is>
       </c>
       <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="n"/>
@@ -1825,18 +1879,24 @@
       <c r="N40" s="3" t="n"/>
       <c r="O40" s="3" t="n"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41">
       <c r="A41" t="n">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Opportunity Knocks</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Take card</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="n"/>
@@ -1846,18 +1906,24 @@
       <c r="N41" s="3" t="n"/>
       <c r="O41" s="3" t="n"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42">
       <c r="A42" t="n">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" t="s">
-        <v>19</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>James Webb Way</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Deep blue</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H42" t="n">
         <v>350</v>
@@ -1881,18 +1947,24 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43">
       <c r="A43" t="n">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" t="s">
-        <v>24</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Super Tax</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pay £100</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="I43" s="3" t="n"/>
       <c r="J43" s="3" t="n"/>
@@ -1902,18 +1974,24 @@
       <c r="N43" s="3" t="n"/>
       <c r="O43" s="3" t="n"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44">
       <c r="A44" t="n">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" t="s">
-        <v>19</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Turing Heights</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Deep blue</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="H44" t="n">
         <v>400</v>
@@ -1937,102 +2015,142 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>73</v>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>House and hotel costs</t>
+        </is>
       </c>
       <c r="I46" s="1" t="n"/>
       <c r="J46" s="1" t="n"/>
       <c r="K46" s="1" t="n"/>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>75</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>If one utility is owned by a player, rent is 4 times value shown on dice.</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
       </c>
       <c r="I47" s="1" t="n"/>
-      <c r="J47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s">
-        <v>79</v>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>Hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>If both utilities are owned by a player, rent is 10 time value shown on dice.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Brown, Blue</t>
+        </is>
       </c>
       <c r="J48" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="K48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" t="s">
-        <v>82</v>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>£50 + 4 houses</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>If player owns 1 station, rent is £25</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Purple, Orange</t>
+        </is>
       </c>
       <c r="J49" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="K49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" t="s">
-        <v>85</v>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>£100 + 4 houses</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>If player owns 2 stations, rent is £50</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Red, Yellow</t>
+        </is>
       </c>
       <c r="J50" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="K50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H51" t="s">
-        <v>88</v>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>£150 + 4 houses</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>If player owns 3 stations, rent is £100</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Green, Deep blue</t>
+        </is>
       </c>
       <c r="J51" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="K51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row customFormat="1" r="54" s="1" spans="1:15"/>
-    <row customFormat="1" r="55" s="1" spans="1:15"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>£200 + 4 houses</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>If player owns 4 stations, rent is £200</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Income Tax and Super Tax fines are paid to the bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" customFormat="1" s="1"/>
+    <row r="55" customFormat="1" s="1"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>